--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44705</v>
       </c>
       <c r="B2" t="n">
-        <v>78.59654235919773</v>
+        <v>78.3671823505026</v>
       </c>
       <c r="C2" t="n">
-        <v>29.67379280604321</v>
+        <v>32.00273918263808</v>
       </c>
       <c r="D2" t="n">
-        <v>123.1968602376871</v>
+        <v>128.1264432182925</v>
       </c>
       <c r="E2" t="n">
         <v>114</v>
@@ -496,13 +496,13 @@
         <v>44712</v>
       </c>
       <c r="B3" t="n">
-        <v>97.51826042027221</v>
+        <v>96.26532150041811</v>
       </c>
       <c r="C3" t="n">
-        <v>52.2694028986313</v>
+        <v>48.32875243928184</v>
       </c>
       <c r="D3" t="n">
-        <v>143.2521322158857</v>
+        <v>142.6856495579908</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
@@ -516,13 +516,13 @@
         <v>44729</v>
       </c>
       <c r="B4" t="n">
-        <v>142.3732886500194</v>
+        <v>134.4878909640436</v>
       </c>
       <c r="C4" t="n">
-        <v>92.81096950920741</v>
+        <v>84.46458505679904</v>
       </c>
       <c r="D4" t="n">
-        <v>191.1996319521659</v>
+        <v>186.1944623523761</v>
       </c>
       <c r="E4" t="n">
         <v>246</v>
@@ -536,13 +536,13 @@
         <v>44761</v>
       </c>
       <c r="B5" t="n">
-        <v>116.2466679142645</v>
+        <v>116.9579329913039</v>
       </c>
       <c r="C5" t="n">
-        <v>66.01308408438962</v>
+        <v>70.60766217912301</v>
       </c>
       <c r="D5" t="n">
-        <v>169.5304956572201</v>
+        <v>169.760575626097</v>
       </c>
       <c r="E5" t="n">
         <v>216</v>
@@ -556,13 +556,13 @@
         <v>44768</v>
       </c>
       <c r="B6" t="n">
-        <v>193.596796183657</v>
+        <v>194.1519163282127</v>
       </c>
       <c r="C6" t="n">
-        <v>144.0495769783653</v>
+        <v>143.1106977958501</v>
       </c>
       <c r="D6" t="n">
-        <v>245.1824085950788</v>
+        <v>243.5092411709156</v>
       </c>
       <c r="E6" t="n">
         <v>150</v>
@@ -576,13 +576,13 @@
         <v>44775</v>
       </c>
       <c r="B7" t="n">
-        <v>205.3766521916894</v>
+        <v>203.8304802934059</v>
       </c>
       <c r="C7" t="n">
-        <v>149.8463434383441</v>
+        <v>154.6311972045921</v>
       </c>
       <c r="D7" t="n">
-        <v>252.7459923735998</v>
+        <v>255.0446495640657</v>
       </c>
       <c r="E7" t="n">
         <v>162</v>
@@ -596,13 +596,13 @@
         <v>44782</v>
       </c>
       <c r="B8" t="n">
-        <v>176.4847814662255</v>
+        <v>172.5864319487625</v>
       </c>
       <c r="C8" t="n">
-        <v>125.8154993620546</v>
+        <v>126.8736519495343</v>
       </c>
       <c r="D8" t="n">
-        <v>223.9685534282648</v>
+        <v>223.1828047659394</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -616,13 +616,13 @@
         <v>44908</v>
       </c>
       <c r="B9" t="n">
-        <v>157.3614186594782</v>
+        <v>99.77014191726867</v>
       </c>
       <c r="C9" t="n">
-        <v>105.1812780394265</v>
+        <v>54.2537985091031</v>
       </c>
       <c r="D9" t="n">
-        <v>209.2118807775842</v>
+        <v>150.8181942547983</v>
       </c>
       <c r="E9" t="n">
         <v>78</v>
@@ -636,13 +636,13 @@
         <v>44915</v>
       </c>
       <c r="B10" t="n">
-        <v>101.5249248292922</v>
+        <v>78.37949600588436</v>
       </c>
       <c r="C10" t="n">
-        <v>47.89713304966015</v>
+        <v>27.77797679693379</v>
       </c>
       <c r="D10" t="n">
-        <v>155.3006624713815</v>
+        <v>125.5133016835208</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -656,13 +656,13 @@
         <v>44922</v>
       </c>
       <c r="B11" t="n">
-        <v>116.0310295212746</v>
+        <v>103.491346501832</v>
       </c>
       <c r="C11" t="n">
-        <v>64.45498519906573</v>
+        <v>54.20811132565103</v>
       </c>
       <c r="D11" t="n">
-        <v>169.8923962903442</v>
+        <v>152.4388913308005</v>
       </c>
       <c r="E11" t="n">
         <v>72</v>
@@ -676,13 +676,13 @@
         <v>44929</v>
       </c>
       <c r="B12" t="n">
-        <v>165.0596867826037</v>
+        <v>158.4153576289436</v>
       </c>
       <c r="C12" t="n">
-        <v>113.2382804649931</v>
+        <v>112.1366772856963</v>
       </c>
       <c r="D12" t="n">
-        <v>213.9253306125162</v>
+        <v>207.6797305774149</v>
       </c>
       <c r="E12" t="n">
         <v>42</v>
@@ -696,13 +696,13 @@
         <v>44936</v>
       </c>
       <c r="B13" t="n">
-        <v>191.3078505458677</v>
+        <v>191.8794889962977</v>
       </c>
       <c r="C13" t="n">
-        <v>138.7966092739124</v>
+        <v>142.2226766125289</v>
       </c>
       <c r="D13" t="n">
-        <v>244.3852144284646</v>
+        <v>246.0354584646749</v>
       </c>
       <c r="E13" t="n">
         <v>156</v>
@@ -716,13 +716,13 @@
         <v>44943</v>
       </c>
       <c r="B14" t="n">
-        <v>193.2193751457064</v>
+        <v>194.0920252885522</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6458505081161</v>
+        <v>143.3095113975407</v>
       </c>
       <c r="D14" t="n">
-        <v>248.0566312022563</v>
+        <v>245.6411154409768</v>
       </c>
       <c r="E14" t="n">
         <v>102</v>
@@ -736,13 +736,13 @@
         <v>44950</v>
       </c>
       <c r="B15" t="n">
-        <v>129.2662718323695</v>
+        <v>131.8665815492275</v>
       </c>
       <c r="C15" t="n">
-        <v>74.94383964226195</v>
+        <v>78.55859150033614</v>
       </c>
       <c r="D15" t="n">
-        <v>181.7636208840094</v>
+        <v>185.0116477686606</v>
       </c>
       <c r="E15" t="n">
         <v>66</v>
@@ -756,13 +756,13 @@
         <v>44957</v>
       </c>
       <c r="B16" t="n">
-        <v>66.70835143817192</v>
+        <v>67.9268361968944</v>
       </c>
       <c r="C16" t="n">
-        <v>15.37652582818443</v>
+        <v>16.92461091212765</v>
       </c>
       <c r="D16" t="n">
-        <v>123.0669433620305</v>
+        <v>117.9101776525261</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -776,13 +776,13 @@
         <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>106.8736530694984</v>
+        <v>95.28550443307049</v>
       </c>
       <c r="C17" t="n">
-        <v>54.92391963552841</v>
+        <v>45.82118126463424</v>
       </c>
       <c r="D17" t="n">
-        <v>158.6017025202789</v>
+        <v>145.7934641396206</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -796,13 +796,13 @@
         <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>55.85476034790344</v>
+        <v>57.15121290161734</v>
       </c>
       <c r="C18" t="n">
-        <v>3.607752753429452</v>
+        <v>9.236133052972209</v>
       </c>
       <c r="D18" t="n">
-        <v>108.6485935622225</v>
+        <v>110.7707748680941</v>
       </c>
       <c r="E18" t="n">
         <v>120</v>
@@ -816,13 +816,13 @@
         <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>99.88165946883326</v>
+        <v>104.7706108256802</v>
       </c>
       <c r="C19" t="n">
-        <v>38.98788670665822</v>
+        <v>48.88011834636958</v>
       </c>
       <c r="D19" t="n">
-        <v>153.0066470130806</v>
+        <v>155.9341445635582</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -836,13 +836,13 @@
         <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>140.0357006336866</v>
+        <v>137.6503880131816</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09036119475518</v>
+        <v>83.19962094775209</v>
       </c>
       <c r="D20" t="n">
-        <v>193.4705239981678</v>
+        <v>189.5904782770284</v>
       </c>
       <c r="E20" t="n">
         <v>126</v>
@@ -856,13 +856,13 @@
         <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>152.8216911661691</v>
+        <v>159.3581566358557</v>
       </c>
       <c r="C21" t="n">
-        <v>99.73337316386761</v>
+        <v>105.9412758101801</v>
       </c>
       <c r="D21" t="n">
-        <v>210.2659358036366</v>
+        <v>216.3127710063052</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -876,13 +876,13 @@
         <v>44995</v>
       </c>
       <c r="B22" t="n">
-        <v>163.4951969753884</v>
+        <v>158.8805805890318</v>
       </c>
       <c r="C22" t="n">
-        <v>108.9913678937334</v>
+        <v>104.3167762856672</v>
       </c>
       <c r="D22" t="n">
-        <v>216.0251986196099</v>
+        <v>209.9284693435219</v>
       </c>
       <c r="E22" t="n">
         <v>144</v>
@@ -896,13 +896,13 @@
         <v>44999</v>
       </c>
       <c r="B23" t="n">
-        <v>119.1447104420215</v>
+        <v>125.0040618078908</v>
       </c>
       <c r="C23" t="n">
-        <v>65.24723134799434</v>
+        <v>72.81901745878353</v>
       </c>
       <c r="D23" t="n">
-        <v>170.6303270408178</v>
+        <v>175.6992702768734</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>45006</v>
       </c>
       <c r="B24" t="n">
-        <v>111.5363658480778</v>
+        <v>114.47256838715</v>
       </c>
       <c r="C24" t="n">
-        <v>57.20079861623096</v>
+        <v>59.06648193470539</v>
       </c>
       <c r="D24" t="n">
-        <v>167.5368063522672</v>
+        <v>166.970288328325</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -936,13 +936,13 @@
         <v>45013</v>
       </c>
       <c r="B25" t="n">
-        <v>132.7747243531106</v>
+        <v>135.1006747084108</v>
       </c>
       <c r="C25" t="n">
-        <v>80.08924732322205</v>
+        <v>81.91537655750575</v>
       </c>
       <c r="D25" t="n">
-        <v>185.6501476768561</v>
+        <v>185.9024440343327</v>
       </c>
       <c r="E25" t="n">
         <v>90</v>
@@ -956,13 +956,13 @@
         <v>45020</v>
       </c>
       <c r="B26" t="n">
-        <v>145.3585532348411</v>
+        <v>148.0346625191613</v>
       </c>
       <c r="C26" t="n">
-        <v>92.11171197364716</v>
+        <v>99.96232971300289</v>
       </c>
       <c r="D26" t="n">
-        <v>203.7377526494743</v>
+        <v>202.0725666905653</v>
       </c>
       <c r="E26" t="n">
         <v>192</v>
@@ -976,13 +976,13 @@
         <v>45027</v>
       </c>
       <c r="B27" t="n">
-        <v>157.7192632599017</v>
+        <v>157.35964511828</v>
       </c>
       <c r="C27" t="n">
-        <v>102.1521267140586</v>
+        <v>105.0962032192309</v>
       </c>
       <c r="D27" t="n">
-        <v>212.4464236693074</v>
+        <v>214.3210821133214</v>
       </c>
       <c r="E27" t="n">
         <v>138</v>
@@ -996,13 +996,13 @@
         <v>45034</v>
       </c>
       <c r="B28" t="n">
-        <v>138.4581694165914</v>
+        <v>140.1709794908472</v>
       </c>
       <c r="C28" t="n">
-        <v>87.70840726531752</v>
+        <v>91.39076161060682</v>
       </c>
       <c r="D28" t="n">
-        <v>196.6764475158679</v>
+        <v>196.6322106578257</v>
       </c>
       <c r="E28" t="n">
         <v>156</v>
@@ -1016,13 +1016,13 @@
         <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>153.4079632758145</v>
+        <v>148.5495316708086</v>
       </c>
       <c r="C29" t="n">
-        <v>97.09309365256281</v>
+        <v>97.72232910810853</v>
       </c>
       <c r="D29" t="n">
-        <v>206.3762450987972</v>
+        <v>199.561521224768</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>124.7438901585884</v>
+        <v>124.8114323666166</v>
       </c>
       <c r="C30" t="n">
-        <v>69.49439648852012</v>
+        <v>78.29359664569635</v>
       </c>
       <c r="D30" t="n">
-        <v>181.2044989122677</v>
+        <v>178.3865147908278</v>
       </c>
       <c r="E30" t="n">
         <v>162</v>
@@ -1056,13 +1056,13 @@
         <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>117.1682342155108</v>
+        <v>120.321042667747</v>
       </c>
       <c r="C31" t="n">
-        <v>65.75967078736836</v>
+        <v>71.25143330981884</v>
       </c>
       <c r="D31" t="n">
-        <v>168.0621977924172</v>
+        <v>171.7955119493332</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -1137,22 +1137,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1595.218153323101</v>
+        <v>1065.502734070376</v>
       </c>
       <c r="C2" t="n">
-        <v>39.94018218940797</v>
+        <v>32.64203936751466</v>
       </c>
       <c r="D2" t="n">
-        <v>32.80151689285782</v>
+        <v>26.60549101176128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5971295163905997</v>
+        <v>0.4881677495444335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1353833123290864</v>
+        <v>0.1033373652016096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3679479152566771</v>
+        <v>0.3209702588715348</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666666</v>
@@ -1163,22 +1163,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1533.422593793378</v>
+        <v>1020.960173242477</v>
       </c>
       <c r="C3" t="n">
-        <v>39.15894015155898</v>
+        <v>31.95246740460707</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2589377735671</v>
+        <v>23.20551778376456</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5675712849567308</v>
+        <v>0.460569880188188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1353833123290864</v>
+        <v>0.1033373652016096</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3402636281242766</v>
+        <v>0.294749997485589</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1189,25 +1189,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3978.262446130122</v>
+        <v>3738.07603637944</v>
       </c>
       <c r="C4" t="n">
-        <v>63.07346863880345</v>
+        <v>61.13980729753276</v>
       </c>
       <c r="D4" t="n">
-        <v>55.34116060341648</v>
+        <v>52.50234195087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.699147939457975</v>
+        <v>0.6565381818580054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4685478484564837</v>
+        <v>0.4000742419005198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4842312328523253</v>
+        <v>0.4603971049466757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5384615384615383</v>
+        <v>0.5769230769230766</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44705</v>
       </c>
       <c r="B2" t="n">
-        <v>78.3671823505026</v>
+        <v>78.36718235037247</v>
       </c>
       <c r="C2" t="n">
-        <v>32.00273918263808</v>
+        <v>30.55113892426493</v>
       </c>
       <c r="D2" t="n">
-        <v>128.1264432182925</v>
+        <v>125.657681232117</v>
       </c>
       <c r="E2" t="n">
         <v>114</v>
@@ -496,13 +496,13 @@
         <v>44712</v>
       </c>
       <c r="B3" t="n">
-        <v>96.26532150041811</v>
+        <v>96.26532150041636</v>
       </c>
       <c r="C3" t="n">
-        <v>48.32875243928184</v>
+        <v>48.02211844195636</v>
       </c>
       <c r="D3" t="n">
-        <v>142.6856495579908</v>
+        <v>141.2983309479644</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
@@ -516,13 +516,13 @@
         <v>44729</v>
       </c>
       <c r="B4" t="n">
-        <v>134.4878909640436</v>
+        <v>134.4878909639763</v>
       </c>
       <c r="C4" t="n">
-        <v>84.46458505679904</v>
+        <v>90.83258785054518</v>
       </c>
       <c r="D4" t="n">
-        <v>186.1944623523761</v>
+        <v>184.0082368936858</v>
       </c>
       <c r="E4" t="n">
         <v>246</v>
@@ -536,13 +536,13 @@
         <v>44761</v>
       </c>
       <c r="B5" t="n">
-        <v>116.9579329913039</v>
+        <v>116.9579329912936</v>
       </c>
       <c r="C5" t="n">
-        <v>70.60766217912301</v>
+        <v>70.07416542033317</v>
       </c>
       <c r="D5" t="n">
-        <v>169.760575626097</v>
+        <v>163.8043578255784</v>
       </c>
       <c r="E5" t="n">
         <v>216</v>
@@ -556,13 +556,13 @@
         <v>44768</v>
       </c>
       <c r="B6" t="n">
-        <v>194.1519163282127</v>
+        <v>194.1519163282116</v>
       </c>
       <c r="C6" t="n">
-        <v>143.1106977958501</v>
+        <v>146.1324101591855</v>
       </c>
       <c r="D6" t="n">
-        <v>243.5092411709156</v>
+        <v>243.2070444446389</v>
       </c>
       <c r="E6" t="n">
         <v>150</v>
@@ -576,13 +576,13 @@
         <v>44775</v>
       </c>
       <c r="B7" t="n">
-        <v>203.8304802934059</v>
+        <v>203.8304802934693</v>
       </c>
       <c r="C7" t="n">
-        <v>154.6311972045921</v>
+        <v>156.7314641144874</v>
       </c>
       <c r="D7" t="n">
-        <v>255.0446495640657</v>
+        <v>254.3860748023387</v>
       </c>
       <c r="E7" t="n">
         <v>162</v>
@@ -596,13 +596,13 @@
         <v>44782</v>
       </c>
       <c r="B8" t="n">
-        <v>172.5864319487625</v>
+        <v>174.4739844839057</v>
       </c>
       <c r="C8" t="n">
-        <v>126.8736519495343</v>
+        <v>126.8808370806177</v>
       </c>
       <c r="D8" t="n">
-        <v>223.1828047659394</v>
+        <v>226.1524376172612</v>
       </c>
       <c r="E8" t="n">
         <v>84</v>
@@ -616,13 +616,13 @@
         <v>44908</v>
       </c>
       <c r="B9" t="n">
-        <v>99.77014191726867</v>
+        <v>99.76411135237569</v>
       </c>
       <c r="C9" t="n">
-        <v>54.2537985091031</v>
+        <v>51.17747062146893</v>
       </c>
       <c r="D9" t="n">
-        <v>150.8181942547983</v>
+        <v>151.3697454462657</v>
       </c>
       <c r="E9" t="n">
         <v>78</v>
@@ -636,13 +636,13 @@
         <v>44915</v>
       </c>
       <c r="B10" t="n">
-        <v>78.37949600588436</v>
+        <v>81.67175554463107</v>
       </c>
       <c r="C10" t="n">
-        <v>27.77797679693379</v>
+        <v>35.1907364133879</v>
       </c>
       <c r="D10" t="n">
-        <v>125.5133016835208</v>
+        <v>131.0536626810652</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -656,13 +656,13 @@
         <v>44922</v>
       </c>
       <c r="B11" t="n">
-        <v>103.491346501832</v>
+        <v>103.4913037603261</v>
       </c>
       <c r="C11" t="n">
-        <v>54.20811132565103</v>
+        <v>51.37610841194657</v>
       </c>
       <c r="D11" t="n">
-        <v>152.4388913308005</v>
+        <v>152.0237935242088</v>
       </c>
       <c r="E11" t="n">
         <v>72</v>
@@ -676,13 +676,13 @@
         <v>44929</v>
       </c>
       <c r="B12" t="n">
-        <v>158.4153576289436</v>
+        <v>158.4153516604619</v>
       </c>
       <c r="C12" t="n">
-        <v>112.1366772856963</v>
+        <v>112.254634131118</v>
       </c>
       <c r="D12" t="n">
-        <v>207.6797305774149</v>
+        <v>205.4144563782606</v>
       </c>
       <c r="E12" t="n">
         <v>42</v>
@@ -696,13 +696,13 @@
         <v>44936</v>
       </c>
       <c r="B13" t="n">
-        <v>191.8794889962977</v>
+        <v>191.9650557235003</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2226766125289</v>
+        <v>142.3554711207767</v>
       </c>
       <c r="D13" t="n">
-        <v>246.0354584646749</v>
+        <v>245.5378310523856</v>
       </c>
       <c r="E13" t="n">
         <v>156</v>
@@ -716,13 +716,13 @@
         <v>44943</v>
       </c>
       <c r="B14" t="n">
-        <v>194.0920252885522</v>
+        <v>194.0920252886326</v>
       </c>
       <c r="C14" t="n">
-        <v>143.3095113975407</v>
+        <v>145.3405861649877</v>
       </c>
       <c r="D14" t="n">
-        <v>245.6411154409768</v>
+        <v>243.774668360215</v>
       </c>
       <c r="E14" t="n">
         <v>102</v>
@@ -736,13 +736,13 @@
         <v>44950</v>
       </c>
       <c r="B15" t="n">
-        <v>131.8665815492275</v>
+        <v>131.8665484341726</v>
       </c>
       <c r="C15" t="n">
-        <v>78.55859150033614</v>
+        <v>77.68386995930661</v>
       </c>
       <c r="D15" t="n">
-        <v>185.0116477686606</v>
+        <v>185.4094597445848</v>
       </c>
       <c r="E15" t="n">
         <v>66</v>
@@ -756,13 +756,13 @@
         <v>44957</v>
       </c>
       <c r="B16" t="n">
-        <v>67.9268361968944</v>
+        <v>67.98613401751606</v>
       </c>
       <c r="C16" t="n">
-        <v>16.92461091212765</v>
+        <v>13.25665880783401</v>
       </c>
       <c r="D16" t="n">
-        <v>117.9101776525261</v>
+        <v>120.7707475181989</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -776,13 +776,13 @@
         <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>95.28550443307049</v>
+        <v>95.28713220006162</v>
       </c>
       <c r="C17" t="n">
-        <v>45.82118126463424</v>
+        <v>45.83025023657382</v>
       </c>
       <c r="D17" t="n">
-        <v>145.7934641396206</v>
+        <v>149.297770744029</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -796,13 +796,13 @@
         <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>57.15121290161734</v>
+        <v>57.15064890948774</v>
       </c>
       <c r="C18" t="n">
-        <v>9.236133052972209</v>
+        <v>4.726083911457036</v>
       </c>
       <c r="D18" t="n">
-        <v>110.7707748680941</v>
+        <v>108.6602887286689</v>
       </c>
       <c r="E18" t="n">
         <v>120</v>
@@ -816,13 +816,13 @@
         <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>104.7706108256802</v>
+        <v>104.7527534717901</v>
       </c>
       <c r="C19" t="n">
-        <v>48.88011834636958</v>
+        <v>55.18597375084772</v>
       </c>
       <c r="D19" t="n">
-        <v>155.9341445635582</v>
+        <v>153.8436233016227</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -836,13 +836,13 @@
         <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>137.6503880131816</v>
+        <v>137.6503913656255</v>
       </c>
       <c r="C20" t="n">
-        <v>83.19962094775209</v>
+        <v>83.59502405910003</v>
       </c>
       <c r="D20" t="n">
-        <v>189.5904782770284</v>
+        <v>189.5708351878184</v>
       </c>
       <c r="E20" t="n">
         <v>126</v>
@@ -856,13 +856,13 @@
         <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>159.3581566358557</v>
+        <v>159.3581601655143</v>
       </c>
       <c r="C21" t="n">
-        <v>105.9412758101801</v>
+        <v>109.9099488936297</v>
       </c>
       <c r="D21" t="n">
-        <v>216.3127710063052</v>
+        <v>214.4451660803455</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -876,13 +876,13 @@
         <v>44995</v>
       </c>
       <c r="B22" t="n">
-        <v>158.8805805890318</v>
+        <v>158.8823336341569</v>
       </c>
       <c r="C22" t="n">
-        <v>104.3167762856672</v>
+        <v>109.3867021191738</v>
       </c>
       <c r="D22" t="n">
-        <v>209.9284693435219</v>
+        <v>216.8121990671659</v>
       </c>
       <c r="E22" t="n">
         <v>144</v>
@@ -896,13 +896,13 @@
         <v>44999</v>
       </c>
       <c r="B23" t="n">
-        <v>125.0040618078908</v>
+        <v>125.0049542415455</v>
       </c>
       <c r="C23" t="n">
-        <v>72.81901745878353</v>
+        <v>74.57043691910731</v>
       </c>
       <c r="D23" t="n">
-        <v>175.6992702768734</v>
+        <v>178.0831490504336</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>45006</v>
       </c>
       <c r="B24" t="n">
-        <v>114.47256838715</v>
+        <v>114.4696274494759</v>
       </c>
       <c r="C24" t="n">
-        <v>59.06648193470539</v>
+        <v>64.51269320674683</v>
       </c>
       <c r="D24" t="n">
-        <v>166.970288328325</v>
+        <v>163.769588621217</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -936,13 +936,13 @@
         <v>45013</v>
       </c>
       <c r="B25" t="n">
-        <v>135.1006747084108</v>
+        <v>136.4823098547316</v>
       </c>
       <c r="C25" t="n">
-        <v>81.91537655750575</v>
+        <v>85.12848435336052</v>
       </c>
       <c r="D25" t="n">
-        <v>185.9024440343327</v>
+        <v>187.0281616916925</v>
       </c>
       <c r="E25" t="n">
         <v>90</v>
@@ -956,13 +956,13 @@
         <v>45020</v>
       </c>
       <c r="B26" t="n">
-        <v>148.0346625191613</v>
+        <v>148.0314576397821</v>
       </c>
       <c r="C26" t="n">
-        <v>99.96232971300289</v>
+        <v>95.11879970226387</v>
       </c>
       <c r="D26" t="n">
-        <v>202.0725666905653</v>
+        <v>198.3535109464619</v>
       </c>
       <c r="E26" t="n">
         <v>192</v>
@@ -976,13 +976,13 @@
         <v>45027</v>
       </c>
       <c r="B27" t="n">
-        <v>157.35964511828</v>
+        <v>158.2167606311361</v>
       </c>
       <c r="C27" t="n">
-        <v>105.0962032192309</v>
+        <v>108.5766039189999</v>
       </c>
       <c r="D27" t="n">
-        <v>214.3210821133214</v>
+        <v>211.0238815928009</v>
       </c>
       <c r="E27" t="n">
         <v>138</v>
@@ -996,13 +996,13 @@
         <v>45034</v>
       </c>
       <c r="B28" t="n">
-        <v>140.1709794908472</v>
+        <v>140.0323134972082</v>
       </c>
       <c r="C28" t="n">
-        <v>91.39076161060682</v>
+        <v>86.01003833569554</v>
       </c>
       <c r="D28" t="n">
-        <v>196.6322106578257</v>
+        <v>194.8882986656638</v>
       </c>
       <c r="E28" t="n">
         <v>156</v>
@@ -1016,13 +1016,13 @@
         <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>148.5495316708086</v>
+        <v>148.7292759140818</v>
       </c>
       <c r="C29" t="n">
-        <v>97.72232910810853</v>
+        <v>94.72608635538583</v>
       </c>
       <c r="D29" t="n">
-        <v>199.561521224768</v>
+        <v>202.3952350068281</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>124.8114323666166</v>
+        <v>124.5684163906438</v>
       </c>
       <c r="C30" t="n">
-        <v>78.29359664569635</v>
+        <v>76.21039194624898</v>
       </c>
       <c r="D30" t="n">
-        <v>178.3865147908278</v>
+        <v>177.4105622566528</v>
       </c>
       <c r="E30" t="n">
         <v>162</v>
@@ -1056,13 +1056,13 @@
         <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>120.321042667747</v>
+        <v>120.985943007922</v>
       </c>
       <c r="C31" t="n">
-        <v>71.25143330981884</v>
+        <v>70.06499495127127</v>
       </c>
       <c r="D31" t="n">
-        <v>171.7955119493332</v>
+        <v>171.9222617349538</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -1137,22 +1137,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1065.502734070376</v>
+        <v>1065.577977159148</v>
       </c>
       <c r="C2" t="n">
-        <v>32.64203936751466</v>
+        <v>32.64319189600103</v>
       </c>
       <c r="D2" t="n">
-        <v>26.60549101176128</v>
+        <v>26.60661906661468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4881677495444335</v>
+        <v>0.4881847351738034</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1033373652016096</v>
+        <v>0.1033495391260896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3209702588715348</v>
+        <v>0.3209787724237861</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666666</v>
@@ -1163,22 +1163,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1020.960173242477</v>
+        <v>1020.872350735911</v>
       </c>
       <c r="C3" t="n">
-        <v>31.95246740460707</v>
+        <v>31.95109310705834</v>
       </c>
       <c r="D3" t="n">
-        <v>23.20551778376456</v>
+        <v>23.14672997337891</v>
       </c>
       <c r="E3" t="n">
-        <v>0.460569880188188</v>
+        <v>0.4601874252969404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1033373652016096</v>
+        <v>0.1033495391260896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.294749997485589</v>
+        <v>0.2943554233481551</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1189,22 +1189,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3738.07603637944</v>
+        <v>3766.514260722368</v>
       </c>
       <c r="C4" t="n">
-        <v>61.13980729753276</v>
+        <v>61.3719338193149</v>
       </c>
       <c r="D4" t="n">
-        <v>52.50234195087</v>
+        <v>52.83264055642197</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6565381818580054</v>
+        <v>0.6609054897899901</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4000742419005198</v>
+        <v>0.4000564395031134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4603971049466757</v>
+        <v>0.4632401047894976</v>
       </c>
       <c r="H4" t="n">
         <v>0.5769230769230766</v>

--- a/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451177/OBAGRA4451177_Sell in_metricas.xlsx
@@ -473,222 +473,222 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="B2" t="n">
-        <v>78.36718235037247</v>
+        <v>88.49645893644049</v>
       </c>
       <c r="C2" t="n">
-        <v>30.55113892426493</v>
+        <v>41.33087158843954</v>
       </c>
       <c r="D2" t="n">
-        <v>125.657681232117</v>
+        <v>134.5456983411719</v>
       </c>
       <c r="E2" t="n">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44698</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="B3" t="n">
-        <v>96.26532150041636</v>
+        <v>78.36718235037247</v>
       </c>
       <c r="C3" t="n">
-        <v>48.02211844195636</v>
+        <v>31.53198244137907</v>
       </c>
       <c r="D3" t="n">
-        <v>141.2983309479644</v>
+        <v>124.9260601840305</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44729</v>
+        <v>44712</v>
       </c>
       <c r="B4" t="n">
-        <v>134.4878909639763</v>
+        <v>96.26532150041636</v>
       </c>
       <c r="C4" t="n">
-        <v>90.83258785054518</v>
+        <v>50.12939976558158</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0082368936858</v>
+        <v>146.9398148725621</v>
       </c>
       <c r="E4" t="n">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44722</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44761</v>
+        <v>44729</v>
       </c>
       <c r="B5" t="n">
-        <v>116.9579329912936</v>
+        <v>134.4878909639763</v>
       </c>
       <c r="C5" t="n">
-        <v>70.07416542033317</v>
+        <v>88.2088313488791</v>
       </c>
       <c r="D5" t="n">
-        <v>163.8043578255784</v>
+        <v>183.1184176054468</v>
       </c>
       <c r="E5" t="n">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44754</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="B6" t="n">
-        <v>194.1519163282116</v>
+        <v>116.9579329912936</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1324101591855</v>
+        <v>68.26795105958078</v>
       </c>
       <c r="D6" t="n">
-        <v>243.2070444446389</v>
+        <v>168.7805700790877</v>
       </c>
       <c r="E6" t="n">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
       <c r="B7" t="n">
-        <v>203.8304802934693</v>
+        <v>194.1519163282116</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7314641144874</v>
+        <v>143.0406644343196</v>
       </c>
       <c r="D7" t="n">
-        <v>254.3860748023387</v>
+        <v>240.8206549224324</v>
       </c>
       <c r="E7" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B8" t="n">
-        <v>174.4739844839057</v>
+        <v>203.8304802934693</v>
       </c>
       <c r="C8" t="n">
-        <v>126.8808370806177</v>
+        <v>156.9906593837479</v>
       </c>
       <c r="D8" t="n">
-        <v>226.1524376172612</v>
+        <v>250.8183187691897</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44908</v>
+        <v>44782</v>
       </c>
       <c r="B9" t="n">
-        <v>99.76411135237569</v>
+        <v>174.4739844839057</v>
       </c>
       <c r="C9" t="n">
-        <v>51.17747062146893</v>
+        <v>127.8766878869065</v>
       </c>
       <c r="D9" t="n">
-        <v>151.3697454462657</v>
+        <v>220.2163220466418</v>
       </c>
       <c r="E9" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44901</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B10" t="n">
-        <v>81.67175554463107</v>
+        <v>99.76411135237569</v>
       </c>
       <c r="C10" t="n">
-        <v>35.1907364133879</v>
+        <v>51.26567239669829</v>
       </c>
       <c r="D10" t="n">
-        <v>131.0536626810652</v>
+        <v>147.3374366773928</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B11" t="n">
-        <v>103.4913037603261</v>
+        <v>81.67175554463107</v>
       </c>
       <c r="C11" t="n">
-        <v>51.37610841194657</v>
+        <v>34.37561023127017</v>
       </c>
       <c r="D11" t="n">
-        <v>152.0237935242088</v>
+        <v>137.6605491376262</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B12" t="n">
-        <v>158.4153516604619</v>
+        <v>103.4913037603261</v>
       </c>
       <c r="C12" t="n">
-        <v>112.254634131118</v>
+        <v>52.49530325209459</v>
       </c>
       <c r="D12" t="n">
-        <v>205.4144563782606</v>
+        <v>158.3424796263124</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13">
@@ -696,13 +696,13 @@
         <v>44936</v>
       </c>
       <c r="B13" t="n">
-        <v>191.9650557235003</v>
+        <v>209.7076932025366</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3554711207767</v>
+        <v>156.4893540454742</v>
       </c>
       <c r="D13" t="n">
-        <v>245.5378310523856</v>
+        <v>258.0782304526752</v>
       </c>
       <c r="E13" t="n">
         <v>156</v>
@@ -716,13 +716,13 @@
         <v>44943</v>
       </c>
       <c r="B14" t="n">
-        <v>194.0920252886326</v>
+        <v>197.8473863244871</v>
       </c>
       <c r="C14" t="n">
-        <v>145.3405861649877</v>
+        <v>152.2820874494688</v>
       </c>
       <c r="D14" t="n">
-        <v>243.774668360215</v>
+        <v>244.8557995885101</v>
       </c>
       <c r="E14" t="n">
         <v>102</v>
@@ -736,13 +736,13 @@
         <v>44950</v>
       </c>
       <c r="B15" t="n">
-        <v>131.8665484341726</v>
+        <v>131.8006097975781</v>
       </c>
       <c r="C15" t="n">
-        <v>77.68386995930661</v>
+        <v>78.88856788965215</v>
       </c>
       <c r="D15" t="n">
-        <v>185.4094597445848</v>
+        <v>182.2237060019941</v>
       </c>
       <c r="E15" t="n">
         <v>66</v>
@@ -756,13 +756,13 @@
         <v>44957</v>
       </c>
       <c r="B16" t="n">
-        <v>67.98613401751606</v>
+        <v>66.82572683220616</v>
       </c>
       <c r="C16" t="n">
-        <v>13.25665880783401</v>
+        <v>17.60745918668415</v>
       </c>
       <c r="D16" t="n">
-        <v>120.7707475181989</v>
+        <v>119.951308024839</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -776,13 +776,13 @@
         <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>95.28713220006162</v>
+        <v>97.08456497029388</v>
       </c>
       <c r="C17" t="n">
-        <v>45.83025023657382</v>
+        <v>48.35271754383405</v>
       </c>
       <c r="D17" t="n">
-        <v>149.297770744029</v>
+        <v>148.3917589562115</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -796,13 +796,13 @@
         <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>57.15064890948774</v>
+        <v>60.2131522734712</v>
       </c>
       <c r="C18" t="n">
-        <v>4.726083911457036</v>
+        <v>7.089245521102888</v>
       </c>
       <c r="D18" t="n">
-        <v>108.6602887286689</v>
+        <v>112.6125485743948</v>
       </c>
       <c r="E18" t="n">
         <v>120</v>
@@ -816,13 +816,13 @@
         <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>104.7527534717901</v>
+        <v>103.8020681204567</v>
       </c>
       <c r="C19" t="n">
-        <v>55.18597375084772</v>
+        <v>49.88141731744865</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8436233016227</v>
+        <v>155.1661649680609</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -836,13 +836,13 @@
         <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>137.6503913656255</v>
+        <v>140.0148689741763</v>
       </c>
       <c r="C20" t="n">
-        <v>83.59502405910003</v>
+        <v>90.24956298757969</v>
       </c>
       <c r="D20" t="n">
-        <v>189.5708351878184</v>
+        <v>191.3531563209946</v>
       </c>
       <c r="E20" t="n">
         <v>126</v>
@@ -856,13 +856,13 @@
         <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>159.3581601655143</v>
+        <v>159.5003409011162</v>
       </c>
       <c r="C21" t="n">
-        <v>109.9099488936297</v>
+        <v>109.3332481771262</v>
       </c>
       <c r="D21" t="n">
-        <v>214.4451660803455</v>
+        <v>212.125179626422</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -876,13 +876,13 @@
         <v>44995</v>
       </c>
       <c r="B22" t="n">
-        <v>158.8823336341569</v>
+        <v>160.0108942411348</v>
       </c>
       <c r="C22" t="n">
-        <v>109.3867021191738</v>
+        <v>111.0816569444766</v>
       </c>
       <c r="D22" t="n">
-        <v>216.8121990671659</v>
+        <v>211.1641622504525</v>
       </c>
       <c r="E22" t="n">
         <v>144</v>
@@ -896,13 +896,13 @@
         <v>44999</v>
       </c>
       <c r="B23" t="n">
-        <v>125.0049542415455</v>
+        <v>127.0700540281764</v>
       </c>
       <c r="C23" t="n">
-        <v>74.57043691910731</v>
+        <v>78.27744894339217</v>
       </c>
       <c r="D23" t="n">
-        <v>178.0831490504336</v>
+        <v>177.0568758498315</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>45006</v>
       </c>
       <c r="B24" t="n">
-        <v>114.4696274494759</v>
+        <v>117.7259202290521</v>
       </c>
       <c r="C24" t="n">
-        <v>64.51269320674683</v>
+        <v>68.56890968741638</v>
       </c>
       <c r="D24" t="n">
-        <v>163.769588621217</v>
+        <v>163.77671699456</v>
       </c>
       <c r="E24" t="n">
         <v>84</v>
@@ -936,13 +936,13 @@
         <v>45013</v>
       </c>
       <c r="B25" t="n">
-        <v>136.4823098547316</v>
+        <v>138.1494373419245</v>
       </c>
       <c r="C25" t="n">
-        <v>85.12848435336052</v>
+        <v>85.43637650245682</v>
       </c>
       <c r="D25" t="n">
-        <v>187.0281616916925</v>
+        <v>190.5493803320386</v>
       </c>
       <c r="E25" t="n">
         <v>90</v>
@@ -956,13 +956,13 @@
         <v>45020</v>
       </c>
       <c r="B26" t="n">
-        <v>148.0314576397821</v>
+        <v>149.9944348928345</v>
       </c>
       <c r="C26" t="n">
-        <v>95.11879970226387</v>
+        <v>95.44792213956963</v>
       </c>
       <c r="D26" t="n">
-        <v>198.3535109464619</v>
+        <v>199.6573455815376</v>
       </c>
       <c r="E26" t="n">
         <v>192</v>
@@ -976,13 +976,13 @@
         <v>45027</v>
       </c>
       <c r="B27" t="n">
-        <v>158.2167606311361</v>
+        <v>160.6362384693421</v>
       </c>
       <c r="C27" t="n">
-        <v>108.5766039189999</v>
+        <v>108.6487430472636</v>
       </c>
       <c r="D27" t="n">
-        <v>211.0238815928009</v>
+        <v>218.8759188733573</v>
       </c>
       <c r="E27" t="n">
         <v>138</v>
@@ -996,13 +996,13 @@
         <v>45034</v>
       </c>
       <c r="B28" t="n">
-        <v>140.0323134972082</v>
+        <v>142.0337400123275</v>
       </c>
       <c r="C28" t="n">
-        <v>86.01003833569554</v>
+        <v>91.13842646876516</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8882986656638</v>
+        <v>195.8086142033056</v>
       </c>
       <c r="E28" t="n">
         <v>156</v>
@@ -1016,13 +1016,13 @@
         <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>148.7292759140818</v>
+        <v>154.9675907215388</v>
       </c>
       <c r="C29" t="n">
-        <v>94.72608635538583</v>
+        <v>101.4562785305459</v>
       </c>
       <c r="D29" t="n">
-        <v>202.3952350068281</v>
+        <v>206.0372890735035</v>
       </c>
       <c r="E29" t="n">
         <v>150</v>
@@ -1036,13 +1036,13 @@
         <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>124.5684163906438</v>
+        <v>131.0776567497923</v>
       </c>
       <c r="C30" t="n">
-        <v>76.21039194624898</v>
+        <v>85.60860353996449</v>
       </c>
       <c r="D30" t="n">
-        <v>177.4105622566528</v>
+        <v>185.7515510448104</v>
       </c>
       <c r="E30" t="n">
         <v>162</v>
@@ -1056,13 +1056,13 @@
         <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>120.985943007922</v>
+        <v>121.0607558402276</v>
       </c>
       <c r="C31" t="n">
-        <v>70.06499495127127</v>
+        <v>69.3529088883397</v>
       </c>
       <c r="D31" t="n">
-        <v>171.9222617349538</v>
+        <v>168.8271979611873</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -1137,22 +1137,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1065.577977159148</v>
+        <v>1162.35819491022</v>
       </c>
       <c r="C2" t="n">
-        <v>32.64319189600103</v>
+        <v>34.09337464831283</v>
       </c>
       <c r="D2" t="n">
-        <v>26.60661906661468</v>
+        <v>28.37010939520166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4881847351738034</v>
+        <v>0.5113177152011928</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1033495391260896</v>
+        <v>0.1112291188426688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3209787724237861</v>
+        <v>0.3342672964980392</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666666</v>
@@ -1163,22 +1163,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1020.872350735911</v>
+        <v>1105.111663314683</v>
       </c>
       <c r="C3" t="n">
-        <v>31.95109310705834</v>
+        <v>33.24321980967974</v>
       </c>
       <c r="D3" t="n">
-        <v>23.14672997337891</v>
+        <v>25.35434997765584</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4601874252969404</v>
+        <v>0.485280432745945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1033495391260896</v>
+        <v>0.1111867655634363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2943554233481551</v>
+        <v>0.3100035506226165</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1189,22 +1189,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>3766.514260722368</v>
+        <v>3327.782219980911</v>
       </c>
       <c r="C4" t="n">
-        <v>61.3719338193149</v>
+        <v>57.68693283561635</v>
       </c>
       <c r="D4" t="n">
-        <v>52.83264055642197</v>
+        <v>49.35152204049276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6609054897899901</v>
+        <v>0.5653860667089887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4000564395031134</v>
+        <v>0.381347488044855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4632401047894976</v>
+        <v>0.424276136303383</v>
       </c>
       <c r="H4" t="n">
         <v>0.5769230769230766</v>
